--- a/.idea/reiskosten NOVI 2.0.0.23.xlsx
+++ b/.idea/reiskosten NOVI 2.0.0.23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\opleidingen cursusen\NOVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\opleidingen cursusen\NOVI\ttd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F87C9-F511-4796-AE80-B74B606A6C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7AF06-6526-4C09-8622-2A30875AC62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C4273071-5EA6-4F7A-8FBD-48B290A15875}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -223,8 +223,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -533,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -544,20 +545,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
@@ -565,7 +556,6 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -575,10 +565,6 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -594,6 +580,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -733,10 +739,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.425000000000004</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>18.524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -757,7 +763,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.425000000000004</c:v>
+                  <c:v>46.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,10 +888,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.7</c:v>
+                  <c:v>123.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -906,7 +912,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.7</c:v>
+                  <c:v>77.650000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,10 +1016,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.125</c:v>
+                  <c:v>197.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>50.524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1034,7 +1040,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168.125</c:v>
+                  <c:v>123.96250000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,6 +1363,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1372,6 +1383,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1387,6 +1403,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1402,6 +1423,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1417,6 +1443,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1432,6 +1463,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1449,6 +1485,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1466,6 +1507,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1483,6 +1529,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1500,6 +1551,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1517,6 +1573,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1534,6 +1595,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1552,6 +1618,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-EE13-45B1-A7B2-88FF3BD8C9EB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -1622,10 +1693,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1646,7 +1717,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1664,7 +1735,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -3306,25 +3377,26 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V50" sqref="V50"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" style="52" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="24.7109375" style="39" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="16.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="11.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -3332,20 +3404,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="46"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="56">
-        <v>1.8</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="43">
+        <v>1.9</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="52"/>
+      <c r="F1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="39"/>
       <c r="O1" s="3"/>
       <c r="P1" s="4"/>
       <c r="U1" t="s">
@@ -3353,344 +3425,346 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="47"/>
-      <c r="C2" s="42" t="str">
+      <c r="B2" s="34"/>
+      <c r="C2" s="62" t="str">
         <f ca="1">"reiskosten"&amp;" "&amp; R14&amp;" "&amp; YEAR(TODAY())</f>
         <v>reiskosten NOVI 2023</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="53"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="43"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
-        <v>7</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13" cm="1">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
+        <v>8</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12" cm="1">
         <f t="array" ref="O4">IF(SUM(C4:N4)&gt;0,SUM(C4:N4/(COUNTIF(C4:N4,"&gt;0"))),"")</f>
-        <v>7</v>
-      </c>
-      <c r="P4" s="14">
+        <v>5</v>
+      </c>
+      <c r="P4" s="13">
         <f>SUM(C4:N4)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="54">
         <f>SUM((C7+C6)*IF(AND(R17&gt;0,C30&gt;0),SUM(C30/(MID(F1,(FIND("o",F1))+3,LEN(F1))))))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="54">
         <f t="shared" ref="D5:N5" si="0">D7+D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="54">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="54">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
+        <v>78</v>
+      </c>
+      <c r="I5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="16" cm="1">
+      <c r="O5" s="55" cm="1">
         <f t="array" ref="O5">IF(SUM(C5:N5)&gt;0,SUM(C5:N5/(COUNTIF(C5:N5,"&gt;0"))),"")</f>
         <v>78</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="56">
         <f t="shared" ref="P5:P7" si="1">SUM(C5:N5)</f>
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18">
-        <f>IF(C4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
-        <f>IF(D4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <f>IF(E4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <f>IF(F4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <f>IF(G4&gt;0,$R$17,0)</f>
+      <c r="C6" s="57">
+        <f t="shared" ref="C6:N6" si="2">IF(C4&gt;0,$R$17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="57">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="H6" s="18">
-        <f>IF(H4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <f>IF(I4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <f>IF(J4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <f>IF(K4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <f>IF(L4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <f>IF(M4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <f>IF(N4&gt;0,$R$17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="19" cm="1">
+      <c r="H6" s="57">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="I6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="58" cm="1">
         <f t="array" ref="O6">IF(SUM(C6:N6)&gt;0,SUM(C6:N6/(COUNTIF(C6:N6,"&gt;0"))),"")</f>
         <v>39</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="59">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="21">
-        <f>IF(C4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <f>IF(D4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
-        <f>IF(E4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <f>IF(F4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <f>IF(G4&gt;0,$R$18,0)</f>
+      <c r="C7" s="57">
+        <f t="shared" ref="C7:N7" si="3">IF(C4&gt;0,$R$18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="57">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="H7" s="21">
-        <f>IF(H4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <f>IF(I4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <f>IF(J4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <f>IF(K4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <f>IF(L4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <f>IF(M4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="21">
-        <f>IF(N4&gt;0,$R$18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="22" cm="1">
+      <c r="H7" s="57">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="I7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="60" cm="1">
         <f t="array" ref="O7">IF(SUM(C7:N7)&gt;0,SUM(C7:N7/(COUNTIF(C7:N7,"&gt;0"))),"")</f>
         <v>39</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="61">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="15">
         <f>SUM(C9:C28)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="24">
-        <f t="shared" ref="D8:N8" si="2">SUM(D9:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <f t="shared" si="2"/>
-        <v>106.7</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="25" cm="1">
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:N8" si="4">SUM(D9:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="4"/>
+        <v>123.30000000000001</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" cm="1">
         <f t="array" ref="O8">IF(SUM(C8:N8)&gt;0,SUM(C8:N8/(COUNTIF(C8:N8,"&gt;0"))),"")</f>
-        <v>106.7</v>
-      </c>
-      <c r="P8" s="26">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="P8" s="16">
         <f>SUM(C8:N8)</f>
-        <v>106.7</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="T8" s="8"/>
     </row>
@@ -3698,63 +3772,62 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="27">
-        <f>IF(C$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <f>IF(D$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
-        <f>IF(E$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
-        <f>IF(F$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="C9" s="46">
+        <f>IF(C$4&gt;=$A9,MAX($O9:O28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <f>IF(D$4&gt;=$A9,MAX($O9:O28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <f>IF(E$4&gt;=$A9,MAX($O9:P28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <f>IF(F$4&gt;=$A9,MAX($O9:Q28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <v>14</v>
       </c>
-      <c r="H9" s="27">
-        <f>IF(H$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
-        <f>IF(I$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="27">
-        <f>IF(J$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="27">
-        <f>IF(K$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="27">
-        <f>IF(L$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="27">
-        <f>IF(M$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="27">
-        <f>IF(N$4&gt;=$A9,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="28" cm="1">
+      <c r="H9" s="17">
+        <v>15</v>
+      </c>
+      <c r="I9" s="17">
+        <f>IF(I$4&gt;=$A9,MAX($O9:T28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <f>IF(J$4&gt;=$A9,MAX($O9:U28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <f>IF(K$4&gt;=$A9,MAX($O9:V28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
+        <f>IF(L$4&gt;=$A9,MAX($O9:W28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <f>IF(M$4&gt;=$A9,MAX($O9:X28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
+        <f>IF(N$4&gt;=$A9,MAX($O9:Y28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="50" cm="1">
         <f t="array" ref="O9">IF(SUM(C9:N9)&gt;0,SUM(C9:N9/(COUNTIF(C9:N9,"&gt;0"))),"")</f>
-        <v>14</v>
-      </c>
-      <c r="P9" s="29">
-        <f t="shared" ref="P9:P28" si="3">SUM(C9:N9)</f>
-        <v>14</v>
+        <v>14.5</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" ref="P9:P28" si="5">SUM(C9:N9)</f>
+        <v>29</v>
       </c>
       <c r="T9" s="8"/>
     </row>
@@ -3763,321 +3836,320 @@
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="27">
-        <f>IF(C$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="27">
-        <f>IF(D$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <f>IF(E$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <f>IF(F$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="C10" s="46">
+        <f>IF(C$4&gt;=$A10,MAX(C$9:C9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <f>IF(D$4&gt;=$A10,MAX(D$9:D9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <f>IF(E$4&gt;=$A10,MAX(E$9:E9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <f>IF(F$4&gt;=$A10,MAX(F$9:F9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
         <v>15.4</v>
       </c>
-      <c r="H10" s="27">
-        <f>IF(H$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
-        <f>IF(I$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <f>IF(J$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
-        <f>IF(K$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <f>IF(L$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <f>IF(M$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
-        <f>IF(N$4&gt;=$A10,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="28" cm="1">
+      <c r="H10" s="17">
+        <v>17</v>
+      </c>
+      <c r="I10" s="17">
+        <f>IF(I$4&gt;=$A10,MAX(I$9:I9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <f>IF(J$4&gt;=$A10,MAX(J$9:J9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <f>IF(K$4&gt;=$A10,MAX(K$9:K9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <f>IF(L$4&gt;=$A10,MAX(L$9:L9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <f>IF(M$4&gt;=$A10,MAX(M$9:M9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="52">
+        <f>IF(N$4&gt;=$A10,MAX(N$9:N9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="50" cm="1">
         <f t="array" ref="O10">IF(SUM(C10:N10)&gt;0,SUM(C10:N10/(COUNTIF(C10:N10,"&gt;0"))),"")</f>
-        <v>15.4</v>
-      </c>
-      <c r="P10" s="29">
-        <f t="shared" si="3"/>
-        <v>15.4</v>
+        <v>16.2</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="5"/>
+        <v>32.4</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <f t="shared" ref="A11:A28" si="4">A10+1</f>
+        <f t="shared" ref="A11:A28" si="6">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="27">
-        <f>IF(C$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="27">
-        <f>IF(D$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
-        <f>IF(E$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <f>IF(F$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="27">
+      <c r="C11" s="46">
+        <f>IF(C$4&gt;=$A11,MAX(C$9:C10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <f>IF(D$4&gt;=$A11,MAX(D$9:D10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <f>IF(E$4&gt;=$A11,MAX(E$9:E10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f>IF(F$4&gt;=$A11,MAX(F$9:F10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
         <v>13.6</v>
       </c>
-      <c r="H11" s="27">
-        <f>IF(H$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="27">
-        <f>IF(I$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="27">
-        <f>IF(J$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="27">
-        <f>IF(K$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="27">
-        <f>IF(L$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="27">
-        <f>IF(M$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="27">
-        <f>IF(N$4&gt;=$A11,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="28" cm="1">
+      <c r="H11" s="17">
+        <f>IF(H$4&gt;=$A11,MAX(H$9:H10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f>IF(I$4&gt;=$A11,MAX(I$9:I10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <f>IF(J$4&gt;=$A11,MAX(J$9:J10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <f>IF(K$4&gt;=$A11,MAX(K$9:K10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
+        <f>IF(L$4&gt;=$A11,MAX(L$9:L10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <f>IF(M$4&gt;=$A11,MAX(M$9:M10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="52">
+        <f>IF(N$4&gt;=$A11,MAX(N$9:N10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="50" cm="1">
         <f t="array" ref="O11">IF(SUM(C11:N11)&gt;0,SUM(C11:N11/(COUNTIF(C11:N11,"&gt;0"))),"")</f>
         <v>13.6</v>
       </c>
-      <c r="P11" s="29">
-        <f t="shared" si="3"/>
+      <c r="P11" s="19">
+        <f t="shared" si="5"/>
         <v>13.6</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="27">
-        <f>IF(C$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
-        <f>IF(D$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="27">
-        <f>IF(E$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <f>IF(F$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="C12" s="46">
+        <f>IF(C$4&gt;=$A12,MAX(C$9:C11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <f>IF(D$4&gt;=$A12,MAX(D$9:D11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <f>IF(E$4&gt;=$A12,MAX(E$9:E11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f>IF(F$4&gt;=$A12,MAX(F$9:F11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
         <v>16.399999999999999</v>
       </c>
-      <c r="H12" s="27">
-        <f>IF(H$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
-        <f>IF(I$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
-        <f>IF(J$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="27">
-        <f>IF(K$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="27">
-        <f>IF(L$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="27">
-        <f>IF(M$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="27">
-        <f>IF(N$4&gt;=$A12,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="28" cm="1">
+      <c r="H12" s="17">
+        <f>IF(H$4&gt;=$A12,MAX(H$9:H11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f>IF(I$4&gt;=$A12,MAX(I$9:I11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f>IF(J$4&gt;=$A12,MAX(J$9:J11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>IF(K$4&gt;=$A12,MAX(K$9:K11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <f>IF(L$4&gt;=$A12,MAX(L$9:L11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <f>IF(M$4&gt;=$A12,MAX(M$9:M11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="52">
+        <f>IF(N$4&gt;=$A12,MAX(N$9:N11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="50" cm="1">
         <f t="array" ref="O12">IF(SUM(C12:N12)&gt;0,SUM(C12:N12/(COUNTIF(C12:N12,"&gt;0"))),"")</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="P12" s="29">
-        <f t="shared" si="3"/>
+      <c r="P12" s="19">
+        <f t="shared" si="5"/>
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="27">
-        <f>IF(C$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="27">
-        <f>IF(D$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
-        <f>IF(E$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
-        <f>IF(F$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
+      <c r="C13" s="46">
+        <f>IF(C$4&gt;=$A13,MAX(C$9:C12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <f>IF(D$4&gt;=$A13,MAX(D$9:D12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <f>IF(E$4&gt;=$A13,MAX(E$9:E12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <f>IF(F$4&gt;=$A13,MAX(F$9:F12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>17.3</v>
       </c>
-      <c r="H13" s="27">
-        <f>IF(H$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="27">
-        <f>IF(I$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="27">
-        <f>IF(J$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="27">
-        <f>IF(K$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="27">
-        <f>IF(L$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="27">
-        <f>IF(M$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="27">
-        <f>IF(N$4&gt;=$A13,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="28" cm="1">
+      <c r="H13" s="17">
+        <f>IF(H$4&gt;=$A13,MAX(H$9:H12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <f>IF(I$4&gt;=$A13,MAX(I$9:I12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f>IF(J$4&gt;=$A13,MAX(J$9:J12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>IF(K$4&gt;=$A13,MAX(K$9:K12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <f>IF(L$4&gt;=$A13,MAX(L$9:L12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <f>IF(M$4&gt;=$A13,MAX(M$9:M12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="52">
+        <f>IF(N$4&gt;=$A13,MAX(N$9:N12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="50" cm="1">
         <f t="array" ref="O13">IF(SUM(C13:N13)&gt;0,SUM(C13:N13/(COUNTIF(C13:N13,"&gt;0"))),"")</f>
         <v>17.3</v>
       </c>
-      <c r="P13" s="29">
-        <f t="shared" si="3"/>
+      <c r="P13" s="19">
+        <f t="shared" si="5"/>
         <v>17.3</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="27">
-        <f>IF(C$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="27">
-        <f>IF(D$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="27">
-        <f>IF(E$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
-        <f>IF(F$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="C14" s="46">
+        <f>IF(C$4&gt;=$A14,MAX(C$9:C13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <f>IF(D$4&gt;=$A14,MAX(D$9:D13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <f>IF(E$4&gt;=$A14,MAX(E$9:E13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f>IF(F$4&gt;=$A14,MAX(F$9:F13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>15</v>
       </c>
-      <c r="H14" s="27">
-        <f>IF(H$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
-        <f>IF(I$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <f>IF(J$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="27">
-        <f>IF(K$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="27">
-        <f>IF(L$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="27">
-        <f>IF(M$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="27">
-        <f>IF(N$4&gt;=$A14,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="28" cm="1">
+      <c r="H14" s="17">
+        <f>IF(H$4&gt;=$A14,MAX(H$9:H13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f>IF(I$4&gt;=$A14,MAX(I$9:I13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f>IF(J$4&gt;=$A14,MAX(J$9:J13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f>IF(K$4&gt;=$A14,MAX(K$9:K13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <f>IF(L$4&gt;=$A14,MAX(L$9:L13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <f>IF(M$4&gt;=$A14,MAX(M$9:M13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="52">
+        <f>IF(N$4&gt;=$A14,MAX(N$9:N13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="50" cm="1">
         <f t="array" ref="O14">IF(SUM(C14:N14)&gt;0,SUM(C14:N14/(COUNTIF(C14:N14,"&gt;0"))),"")</f>
         <v>15</v>
       </c>
-      <c r="P14" s="29">
-        <f t="shared" si="3"/>
+      <c r="P14" s="19">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="Q14" s="53" t="s">
+      <c r="Q14" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R14" t="s">
@@ -4086,1205 +4158,1203 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="27">
-        <f>IF(C$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="27">
-        <f>IF(D$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="27">
-        <f>IF(E$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
-        <f>IF(F$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="C15" s="46">
+        <f>IF(C$4&gt;=$A15,MAX(C$9:C14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <f>IF(D$4&gt;=$A15,MAX(D$9:D14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <f>IF(E$4&gt;=$A15,MAX(E$9:E14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>IF(F$4&gt;=$A15,MAX(F$9:F14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>15</v>
       </c>
-      <c r="H15" s="27">
-        <f>IF(H$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="27">
-        <f>IF(I$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="27">
-        <f>IF(J$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="27">
-        <f>IF(K$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="27">
-        <f>IF(L$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="27">
-        <f>IF(M$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="27">
-        <f>IF(N$4&gt;=$A15,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="28" cm="1">
+      <c r="H15" s="17">
+        <f>IF(H$4&gt;=$A15,MAX(H$9:H14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <f>IF(I$4&gt;=$A15,MAX(I$9:I14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <f>IF(J$4&gt;=$A15,MAX(J$9:J14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <f>IF(K$4&gt;=$A15,MAX(K$9:K14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
+        <f>IF(L$4&gt;=$A15,MAX(L$9:L14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <f>IF(M$4&gt;=$A15,MAX(M$9:M14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="52">
+        <f>IF(N$4&gt;=$A15,MAX(N$9:N14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="50" cm="1">
         <f t="array" ref="O15">IF(SUM(C15:N15)&gt;0,SUM(C15:N15/(COUNTIF(C15:N15,"&gt;0"))),"")</f>
         <v>15</v>
       </c>
-      <c r="P15" s="29">
-        <f t="shared" si="3"/>
+      <c r="P15" s="19">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="S15" s="33"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27">
-        <f>IF(C$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="27">
-        <f>IF(D$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="27">
-        <f>IF(E$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="27">
-        <f>IF(F$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="27">
-        <f>IF(G$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
-        <f>IF(H$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
-        <f>IF(I$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="27">
-        <f>IF(J$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="27">
-        <f>IF(K$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="27">
-        <f>IF(L$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="27">
-        <f>IF(M$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="27">
-        <f>IF(N$4&gt;=$A16,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="28" t="str" cm="1">
+      <c r="C16" s="46">
+        <f>IF(C$4&gt;=$A16,MAX(C$9:C15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <f>IF(D$4&gt;=$A16,MAX(D$9:D15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <f>IF(E$4&gt;=$A16,MAX(E$9:E15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>IF(F$4&gt;=$A16,MAX(F$9:F15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H16" s="17">
+        <f>IF(H$4&gt;=$A16,MAX(H$9:H15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f>IF(I$4&gt;=$A16,MAX(I$9:I15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f>IF(J$4&gt;=$A16,MAX(J$9:J15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <f>IF(K$4&gt;=$A16,MAX(K$9:K15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <f>IF(L$4&gt;=$A16,MAX(L$9:L15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <f>IF(M$4&gt;=$A16,MAX(M$9:M15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="52">
+        <f>IF(N$4&gt;=$A16,MAX(N$9:N15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="50" cm="1">
         <f t="array" ref="O16">IF(SUM(C16:N16)&gt;0,SUM(C16:N16/(COUNTIF(C16:N16,"&gt;0"))),"")</f>
-        <v/>
-      </c>
-      <c r="P16" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="53" t="s">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="5"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q16" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="28">
         <f>IF(AND(R17&gt;0,O30&gt;0),SUM(O30/(MID(F1,(FIND("o",F1))+3,LEN(F1)))))</f>
-        <v>0.1125</v>
+        <v>0.11874999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="27">
-        <f>IF(C$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <f>IF(D$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
-        <f>IF(E$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <f>IF(F$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <f>IF(G$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <f>IF(H$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="27">
-        <f>IF(I$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="27">
-        <f>IF(J$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="27">
-        <f>IF(K$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="27">
-        <f>IF(L$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="27">
-        <f>IF(M$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="27">
-        <f>IF(N$4&gt;=$A17,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="28" t="str" cm="1">
+      <c r="C17" s="46">
+        <f>IF(C$4&gt;=$A17,MAX(C$9:C16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <f>IF(D$4&gt;=$A17,MAX(D$9:D16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <f>IF(E$4&gt;=$A17,MAX(E$9:E16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f>IF(F$4&gt;=$A17,MAX(F$9:F16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f>IF(G$4&gt;=$A17,MAX(G$9:G16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>IF(H$4&gt;=$A17,MAX(H$9:H16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <f>IF(I$4&gt;=$A17,MAX(I$9:I16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f>IF(J$4&gt;=$A17,MAX(J$9:J16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <f>IF(K$4&gt;=$A17,MAX(K$9:K16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <f>IF(L$4&gt;=$A17,MAX(L$9:L16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <f>IF(M$4&gt;=$A17,MAX(M$9:M16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="52">
+        <f>IF(N$4&gt;=$A17,MAX(N$9:N16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="50" t="str" cm="1">
         <f t="array" ref="O17">IF(SUM(C17:N17)&gt;0,SUM(C17:N17/(COUNTIF(C17:N17,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P17" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="53" t="s">
+      <c r="P17" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="29">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="27">
-        <f>IF(C$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="27">
-        <f>IF(D$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="27">
-        <f>IF(E$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <f>IF(F$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="27">
-        <f>IF(G$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
-        <f>IF(H$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="27">
-        <f>IF(I$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="27">
-        <f>IF(J$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="27">
-        <f>IF(K$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="27">
-        <f>IF(L$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="27">
-        <f>IF(M$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="27">
-        <f>IF(N$4&gt;=$A18,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="28" t="str" cm="1">
+      <c r="C18" s="46">
+        <f>IF(C$4&gt;=$A18,MAX(C$9:C17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <f>IF(D$4&gt;=$A18,MAX(D$9:D17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <f>IF(E$4&gt;=$A18,MAX(E$9:E17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f>IF(F$4&gt;=$A18,MAX(F$9:F17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <f>IF(G$4&gt;=$A18,MAX(G$9:G17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f>IF(H$4&gt;=$A18,MAX(H$9:H17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <f>IF(I$4&gt;=$A18,MAX(I$9:I17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f>IF(J$4&gt;=$A18,MAX(J$9:J17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>IF(K$4&gt;=$A18,MAX(K$9:K17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <f>IF(L$4&gt;=$A18,MAX(L$9:L17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <f>IF(M$4&gt;=$A18,MAX(M$9:M17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="52">
+        <f>IF(N$4&gt;=$A18,MAX(N$9:N17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="50" t="str" cm="1">
         <f t="array" ref="O18">IF(SUM(C18:N18)&gt;0,SUM(C18:N18/(COUNTIF(C18:N18,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P18" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="53" t="s">
+      <c r="P18" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="29">
         <v>39</v>
       </c>
-      <c r="S18" s="39"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="27">
-        <f>IF(C$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="27">
-        <f>IF(D$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="27">
-        <f>IF(E$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <f>IF(F$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
-        <f>IF(G$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
-        <f>IF(H$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="27">
-        <f>IF(I$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="27">
-        <f>IF(J$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="27">
-        <f>IF(K$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="27">
-        <f>IF(L$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="27">
-        <f>IF(M$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="27">
-        <f>IF(N$4&gt;=$A19,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="28" t="str" cm="1">
+      <c r="C19" s="46">
+        <f>IF(C$4&gt;=$A19,MAX(C$9:C18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <f>IF(D$4&gt;=$A19,MAX(D$9:D18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <f>IF(E$4&gt;=$A19,MAX(E$9:E18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <f>IF(F$4&gt;=$A19,MAX(F$9:F18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <f>IF(G$4&gt;=$A19,MAX(G$9:G18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <f>IF(H$4&gt;=$A19,MAX(H$9:H18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <f>IF(I$4&gt;=$A19,MAX(I$9:I18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f>IF(J$4&gt;=$A19,MAX(J$9:J18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <f>IF(K$4&gt;=$A19,MAX(K$9:K18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <f>IF(L$4&gt;=$A19,MAX(L$9:L18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <f>IF(M$4&gt;=$A19,MAX(M$9:M18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="52">
+        <f>IF(N$4&gt;=$A19,MAX(N$9:N18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="50" t="str" cm="1">
         <f t="array" ref="O19">IF(SUM(C19:N19)&gt;0,SUM(C19:N19/(COUNTIF(C19:N19,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P19" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="53" t="s">
+      <c r="P19" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="41">
+      <c r="R19" s="24">
         <f>AVERAGEIF(O9:O28,"&gt;0")</f>
-        <v>15.242857142857144</v>
-      </c>
-      <c r="S19" s="33"/>
+        <v>15.574999999999999</v>
+      </c>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="27">
-        <f>IF(C$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="27">
-        <f>IF(D$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
-        <f>IF(E$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <f>IF(F$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
-        <f>IF(G$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
-        <f>IF(H$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <f>IF(I$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="27">
-        <f>IF(J$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="27">
-        <f>IF(K$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="27">
-        <f>IF(L$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <f>IF(M$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="27">
-        <f>IF(N$4&gt;=$A20,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="28" t="str" cm="1">
+      <c r="C20" s="46">
+        <f>IF(C$4&gt;=$A20,MAX(C$9:C19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <f>IF(D$4&gt;=$A20,MAX(D$9:D19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <f>IF(E$4&gt;=$A20,MAX(E$9:E19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <f>IF(F$4&gt;=$A20,MAX(F$9:F19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <f>IF(G$4&gt;=$A20,MAX(G$9:G19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <f>IF(H$4&gt;=$A20,MAX(H$9:H19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <f>IF(I$4&gt;=$A20,MAX(I$9:I19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <f>IF(J$4&gt;=$A20,MAX(J$9:J19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <f>IF(K$4&gt;=$A20,MAX(K$9:K19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <f>IF(L$4&gt;=$A20,MAX(L$9:L19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <f>IF(M$4&gt;=$A20,MAX(M$9:M19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="52">
+        <f>IF(N$4&gt;=$A20,MAX(N$9:N19),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="50" t="str" cm="1">
         <f t="array" ref="O20">IF(SUM(C20:N20)&gt;0,SUM(C20:N20/(COUNTIF(C20:N20,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P20" s="29">
-        <f t="shared" si="3"/>
+      <c r="P20" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="27">
-        <f>IF(C$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <f>IF(D$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="27">
-        <f>IF(E$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <f>IF(F$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
-        <f>IF(G$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="27">
-        <f>IF(H$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="27">
-        <f>IF(I$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="27">
-        <f>IF(J$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="27">
-        <f>IF(K$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <f>IF(L$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="27">
-        <f>IF(M$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="27">
-        <f>IF(N$4&gt;=$A21,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="28" t="str" cm="1">
+      <c r="C21" s="46">
+        <f>IF(C$4&gt;=$A21,MAX(C$9:C20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <f>IF(D$4&gt;=$A21,MAX(D$9:D20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <f>IF(E$4&gt;=$A21,MAX(E$9:E20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <f>IF(F$4&gt;=$A21,MAX(F$9:F20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <f>IF(G$4&gt;=$A21,MAX(G$9:G20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f>IF(H$4&gt;=$A21,MAX(H$9:H20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <f>IF(I$4&gt;=$A21,MAX(I$9:I20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f>IF(J$4&gt;=$A21,MAX(J$9:J20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <f>IF(K$4&gt;=$A21,MAX(K$9:K20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <f>IF(L$4&gt;=$A21,MAX(L$9:L20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <f>IF(M$4&gt;=$A21,MAX(M$9:M20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="52">
+        <f>IF(N$4&gt;=$A21,MAX(N$9:N20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="50" t="str" cm="1">
         <f t="array" ref="O21">IF(SUM(C21:N21)&gt;0,SUM(C21:N21/(COUNTIF(C21:N21,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P21" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="54"/>
+      <c r="P21" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="27">
-        <f>IF(C$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
-        <f>IF(D$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
-        <f>IF(E$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <f>IF(F$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <f>IF(G$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="27">
-        <f>IF(H$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="27">
-        <f>IF(I$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="27">
-        <f>IF(J$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="27">
-        <f>IF(K$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="27">
-        <f>IF(L$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="27">
-        <f>IF(M$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="27">
-        <f>IF(N$4&gt;=$A22,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="28" t="str" cm="1">
+      <c r="C22" s="46">
+        <f>IF(C$4&gt;=$A22,MAX(C$9:C21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <f>IF(D$4&gt;=$A22,MAX(D$9:D21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <f>IF(E$4&gt;=$A22,MAX(E$9:E21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <f>IF(F$4&gt;=$A22,MAX(F$9:F21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="17">
+        <f>IF(G$4&gt;=$A22,MAX(G$9:G21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <f>IF(H$4&gt;=$A22,MAX(H$9:H21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <f>IF(I$4&gt;=$A22,MAX(I$9:I21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <f>IF(J$4&gt;=$A22,MAX(J$9:J21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <f>IF(K$4&gt;=$A22,MAX(K$9:K21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <f>IF(L$4&gt;=$A22,MAX(L$9:L21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <f>IF(M$4&gt;=$A22,MAX(M$9:M21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="52">
+        <f>IF(N$4&gt;=$A22,MAX(N$9:N21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="50" t="str" cm="1">
         <f t="array" ref="O22">IF(SUM(C22:N22)&gt;0,SUM(C22:N22/(COUNTIF(C22:N22,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P22" s="29">
-        <f t="shared" si="3"/>
+      <c r="P22" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="27">
-        <f>IF(C$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="27">
-        <f>IF(D$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <f>IF(E$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <f>IF(F$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <f>IF(G$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
-        <f>IF(H$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="27">
-        <f>IF(I$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="27">
-        <f>IF(J$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="27">
-        <f>IF(K$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="27">
-        <f>IF(L$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="27">
-        <f>IF(M$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="27">
-        <f>IF(N$4&gt;=$A23,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="28" t="str" cm="1">
+      <c r="C23" s="46">
+        <f>IF(C$4&gt;=$A23,MAX(C$9:C22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <f>IF(D$4&gt;=$A23,MAX(D$9:D22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f>IF(E$4&gt;=$A23,MAX(E$9:E22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <f>IF(F$4&gt;=$A23,MAX(F$9:F22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <f>IF(G$4&gt;=$A23,MAX(G$9:G22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <f>IF(H$4&gt;=$A23,MAX(H$9:H22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <f>IF(I$4&gt;=$A23,MAX(I$9:I22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f>IF(J$4&gt;=$A23,MAX(J$9:J22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <f>IF(K$4&gt;=$A23,MAX(K$9:K22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <f>IF(L$4&gt;=$A23,MAX(L$9:L22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <f>IF(M$4&gt;=$A23,MAX(M$9:M22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="52">
+        <f>IF(N$4&gt;=$A23,MAX(N$9:N22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="50" t="str" cm="1">
         <f t="array" ref="O23">IF(SUM(C23:N23)&gt;0,SUM(C23:N23/(COUNTIF(C23:N23,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P23" s="29">
-        <f t="shared" si="3"/>
+      <c r="P23" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="27">
-        <f>IF(C$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="27">
-        <f>IF(D$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <f>IF(E$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="27">
-        <f>IF(F$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
-        <f>IF(G$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
-        <f>IF(H$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="27">
-        <f>IF(I$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="27">
-        <f>IF(J$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="27">
-        <f>IF(K$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="27">
-        <f>IF(L$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="27">
-        <f>IF(M$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="27">
-        <f>IF(N$4&gt;=$A24,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="28" t="str" cm="1">
+      <c r="C24" s="46">
+        <f>IF(C$4&gt;=$A24,MAX(C$9:C23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <f>IF(D$4&gt;=$A24,MAX(D$9:D23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <f>IF(E$4&gt;=$A24,MAX(E$9:E23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <f>IF(F$4&gt;=$A24,MAX(F$9:F23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <f>IF(G$4&gt;=$A24,MAX(G$9:G23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <f>IF(H$4&gt;=$A24,MAX(H$9:H23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <f>IF(I$4&gt;=$A24,MAX(I$9:I23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f>IF(J$4&gt;=$A24,MAX(J$9:J23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <f>IF(K$4&gt;=$A24,MAX(K$9:K23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <f>IF(L$4&gt;=$A24,MAX(L$9:L23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <f>IF(M$4&gt;=$A24,MAX(M$9:M23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="52">
+        <f>IF(N$4&gt;=$A24,MAX(N$9:N23),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="50" t="str" cm="1">
         <f t="array" ref="O24">IF(SUM(C24:N24)&gt;0,SUM(C24:N24/(COUNTIF(C24:N24,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P24" s="29">
-        <f t="shared" si="3"/>
+      <c r="P24" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="27">
-        <f>IF(C$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
-        <f>IF(D$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="27">
-        <f>IF(E$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="27">
-        <f>IF(F$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
-        <f>IF(G$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
-        <f>IF(H$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="27">
-        <f>IF(I$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="27">
-        <f>IF(J$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="27">
-        <f>IF(K$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="27">
-        <f>IF(L$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="27">
-        <f>IF(M$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="27">
-        <f>IF(N$4&gt;=$A25,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="28" t="str" cm="1">
+      <c r="C25" s="46">
+        <f>IF(C$4&gt;=$A25,MAX(C$9:C24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <f>IF(D$4&gt;=$A25,MAX(D$9:D24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <f>IF(E$4&gt;=$A25,MAX(E$9:E24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <f>IF(F$4&gt;=$A25,MAX(F$9:F24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <f>IF(G$4&gt;=$A25,MAX(G$9:G24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f>IF(H$4&gt;=$A25,MAX(H$9:H24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <f>IF(I$4&gt;=$A25,MAX(I$9:I24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <f>IF(J$4&gt;=$A25,MAX(J$9:J24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <f>IF(K$4&gt;=$A25,MAX(K$9:K24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <f>IF(L$4&gt;=$A25,MAX(L$9:L24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <f>IF(M$4&gt;=$A25,MAX(M$9:M24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="52">
+        <f>IF(N$4&gt;=$A25,MAX(N$9:N24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="50" t="str" cm="1">
         <f t="array" ref="O25">IF(SUM(C25:N25)&gt;0,SUM(C25:N25/(COUNTIF(C25:N25,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P25" s="29">
-        <f t="shared" si="3"/>
+      <c r="P25" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="27">
-        <f>IF(C$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="27">
-        <f>IF(D$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <f>IF(E$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="27">
-        <f>IF(F$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="27">
-        <f>IF(G$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="27">
-        <f>IF(H$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="27">
-        <f>IF(I$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="27">
-        <f>IF(J$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="27">
-        <f>IF(K$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="27">
-        <f>IF(L$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="27">
-        <f>IF(M$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="27">
-        <f>IF(N$4&gt;=$A26,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="28" t="str" cm="1">
+      <c r="C26" s="46">
+        <f>IF(C$4&gt;=$A26,MAX(C$9:C25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <f>IF(D$4&gt;=$A26,MAX(D$9:D25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <f>IF(E$4&gt;=$A26,MAX(E$9:E25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <f>IF(F$4&gt;=$A26,MAX(F$9:F25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <f>IF(G$4&gt;=$A26,MAX(G$9:G25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <f>IF(H$4&gt;=$A26,MAX(H$9:H25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <f>IF(I$4&gt;=$A26,MAX(I$9:I25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <f>IF(J$4&gt;=$A26,MAX(J$9:J25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <f>IF(K$4&gt;=$A26,MAX(K$9:K25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <f>IF(L$4&gt;=$A26,MAX(L$9:L25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <f>IF(M$4&gt;=$A26,MAX(M$9:M25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="52">
+        <f>IF(N$4&gt;=$A26,MAX(N$9:N25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="50" t="str" cm="1">
         <f t="array" ref="O26">IF(SUM(C26:N26)&gt;0,SUM(C26:N26/(COUNTIF(C26:N26,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P26" s="29">
-        <f t="shared" si="3"/>
+      <c r="P26" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="27">
-        <f>IF(C$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="27">
-        <f>IF(D$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="27">
-        <f>IF(E$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="27">
-        <f>IF(F$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="27">
-        <f>IF(G$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="27">
-        <f>IF(H$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="27">
-        <f>IF(I$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="27">
-        <f>IF(J$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="27">
-        <f>IF(K$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="27">
-        <f>IF(L$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="27">
-        <f>IF(M$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="27">
-        <f>IF(N$4&gt;=$A27,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="28" t="str" cm="1">
+      <c r="C27" s="46">
+        <f>IF(C$4&gt;=$A27,MAX(C$9:C26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <f>IF(D$4&gt;=$A27,MAX(D$9:D26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <f>IF(E$4&gt;=$A27,MAX(E$9:E26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <f>IF(F$4&gt;=$A27,MAX(F$9:F26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <f>IF(G$4&gt;=$A27,MAX(G$9:G26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <f>IF(H$4&gt;=$A27,MAX(H$9:H26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <f>IF(I$4&gt;=$A27,MAX(I$9:I26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <f>IF(J$4&gt;=$A27,MAX(J$9:J26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <f>IF(K$4&gt;=$A27,MAX(K$9:K26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <f>IF(L$4&gt;=$A27,MAX(L$9:L26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <f>IF(M$4&gt;=$A27,MAX(M$9:M26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="52">
+        <f>IF(N$4&gt;=$A27,MAX(N$9:N26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="50" t="str" cm="1">
         <f t="array" ref="O27">IF(SUM(C27:N27)&gt;0,SUM(C27:N27/(COUNTIF(C27:N27,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P27" s="29">
-        <f t="shared" si="3"/>
+      <c r="P27" s="19">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="30">
-        <f>IF(C$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="30">
-        <f>IF(D$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="30">
-        <f>IF(E$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="30">
-        <f>IF(F$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="30">
-        <f>IF(G$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="30">
-        <f>IF(H$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="30">
-        <f>IF(I$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="30">
-        <f>IF(J$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="30">
-        <f>IF(K$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="30">
-        <f>IF(L$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="30">
-        <f>IF(M$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="30">
-        <f>IF(N$4&gt;=$A28,$R$19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="31" t="str" cm="1">
+      <c r="C28" s="45">
+        <f>IF(C$4&gt;=$A28,MAX(C$9:C27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20">
+        <f>IF(D$4&gt;=$A28,MAX(D$9:D27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <f>IF(E$4&gt;=$A28,MAX(E$9:E27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <f>IF(F$4&gt;=$A28,MAX(F$9:F27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <f>IF(G$4&gt;=$A28,MAX(G$9:G27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
+        <f>IF(H$4&gt;=$A28,MAX(H$9:H27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
+        <f>IF(I$4&gt;=$A28,MAX(I$9:I27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="20">
+        <f>IF(J$4&gt;=$A28,MAX(J$9:J27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="20">
+        <f>IF(K$4&gt;=$A28,MAX(K$9:K27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="20">
+        <f>IF(L$4&gt;=$A28,MAX(L$9:L27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <f>IF(M$4&gt;=$A28,MAX(M$9:M27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="53">
+        <f>IF(N$4&gt;=$A28,MAX(N$9:N27),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="51" t="str" cm="1">
         <f t="array" ref="O28">IF(SUM(C28:N28)&gt;0,SUM(C28:N28/(COUNTIF(C28:N28,"&gt;0"))),"")</f>
         <v/>
       </c>
-      <c r="P28" s="32">
-        <f t="shared" si="3"/>
+      <c r="P28" s="21">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="29"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="28">
         <f>IF(C4&gt;0,$O$30,0)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="39">
-        <f>IF(D4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="39">
-        <f>IF(E4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="39">
-        <f>IF(F4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="39">
+      <c r="D30" s="28">
+        <f t="shared" ref="D30:N30" si="7">IF(D4&gt;0,$D$1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
         <f>IF(G4&gt;0,$D$1,0)</f>
-        <v>1.8</v>
-      </c>
-      <c r="H30" s="39">
+        <v>1.9</v>
+      </c>
+      <c r="H30" s="28">
         <f>IF(H4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="39">
-        <f>IF(I4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="39">
-        <f>IF(J4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="39">
-        <f>IF(K4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="39">
-        <f>IF(L4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="39">
-        <f>IF(M4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="39">
-        <f>IF(N4&gt;0,$D$1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="28" cm="1">
+        <v>1.9</v>
+      </c>
+      <c r="I30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="18" cm="1">
         <f t="array" ref="O30">IF(SUM(C30:N30)&gt;0,SUM(C30:N30/(COUNTIF(C30:N30,"&gt;0"))),"")</f>
-        <v>1.8</v>
-      </c>
-      <c r="P30" s="29">
-        <f t="shared" ref="P30" si="5">SUM(C30:N30)</f>
-        <v>1.8</v>
+        <v>1.9</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" ref="P30" si="8">SUM(C30:N30)</f>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="34">
-        <f>IF(AND(C8&gt;0,C5&gt;0,C4&gt;0),(C4*(C5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="34">
-        <f>IF(AND(D8&gt;0,D5&gt;0,D4&gt;0),(D4*(D5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="34">
-        <f>IF(AND(E8&gt;0,E5&gt;0,E4&gt;0),(E4*(E5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="34">
-        <f>IF(AND(F8&gt;0,F5&gt;0,F4&gt;0),(F4*(F5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="34">
-        <f>IF(AND(G8&gt;0,G5&gt;0,G4&gt;0),(G4*(G5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>61.425000000000004</v>
-      </c>
-      <c r="H31" s="34">
-        <f>IF(AND(H8&gt;0,H5&gt;0,H4&gt;0),(H4*(H5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="34">
-        <f>IF(AND(I8&gt;0,I5&gt;0,I4&gt;0),(I4*(I5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="34">
-        <f>IF(AND(J8&gt;0,J5&gt;0,J4&gt;0),(J4*(J5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="34">
-        <f>IF(AND(K8&gt;0,K5&gt;0,K4&gt;0),(K4*(K5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="34">
-        <f>IF(AND(L8&gt;0,L5&gt;0,L4&gt;0),(L4*(L5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="34">
-        <f>IF(AND(M8&gt;0,M5&gt;0,M4&gt;0),(M4*(M5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="34">
-        <f>IF(AND(N8&gt;0,N5&gt;0,N4&gt;0),(N4*(N5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="28" cm="1">
+      <c r="C31" s="23">
+        <f t="shared" ref="C31:N31" si="9">IF(AND(C8&gt;0,C5&gt;0,C4&gt;0),(C4*(C5*(IF(AND($R$17&gt;0,$O$30&gt;0),SUM($O$30/(MID($F$1,(FIND("o",$F$1))+3,LEN($F$1)))))))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <f t="shared" si="9"/>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="9"/>
+        <v>18.524999999999999</v>
+      </c>
+      <c r="I31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="18" cm="1">
         <f t="array" ref="O31">IF(SUM(C31:N31)&gt;0,SUM(C31:N31/(COUNTIF(C31:N31,"&gt;0"))),"")</f>
-        <v>61.425000000000004</v>
-      </c>
-      <c r="P31" s="29">
-        <f t="shared" ref="P31:P32" si="6">SUM(C31:N31)</f>
-        <v>61.425000000000004</v>
+        <v>46.3125</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" ref="P31" si="10">SUM(C31:N31)</f>
+        <v>92.625</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="47" t="str">
-        <f>B8</f>
+      <c r="B32" s="34" t="str">
+        <f t="shared" ref="B32:N32" si="11">B8</f>
         <v>parkeer kosten</v>
       </c>
-      <c r="C32" s="35">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="35">
-        <f>D8</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="35">
-        <f>E8</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="35">
-        <f>F8</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="35">
-        <f>G8</f>
-        <v>106.7</v>
-      </c>
-      <c r="H32" s="35">
-        <f>H8</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="35">
-        <f>I8</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="35">
-        <f>J8</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="35">
-        <f>K8</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="35">
-        <f>L8</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="35">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="35">
-        <f>N8</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="28" cm="1">
+      <c r="C32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="11"/>
+        <v>123.30000000000001</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="18" cm="1">
         <f t="array" ref="O32">IF(SUM(C32:N32)&gt;0,SUM(C32:N32/(COUNTIF(C32:N32,"&gt;0"))),"")</f>
-        <v>106.7</v>
-      </c>
-      <c r="P32" s="29">
-        <f t="shared" ref="P32" si="7">SUM(C32:N32)</f>
-        <v>106.7</v>
+        <v>77.650000000000006</v>
+      </c>
+      <c r="P32" s="19">
+        <f t="shared" ref="P32" si="12">SUM(C32:N32)</f>
+        <v>155.30000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="25">
         <f>SUM(C32+C31)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="36">
-        <f t="shared" ref="D33:N33" si="8">SUM(D32+D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="36">
-        <f t="shared" si="8"/>
-        <v>168.125</v>
-      </c>
-      <c r="H33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="37" cm="1">
+      <c r="D33" s="25">
+        <f t="shared" ref="D33:N33" si="13">SUM(D32+D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="13"/>
+        <v>197.4</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="13"/>
+        <v>50.524999999999999</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="26" cm="1">
         <f t="array" ref="O33">IF(SUM(C33:N33)&gt;0,SUM(C33:N33/(COUNTIF(C33:N33,"&gt;0"))),"")</f>
-        <v>168.125</v>
-      </c>
-      <c r="P33" s="38">
+        <v>123.96250000000001</v>
+      </c>
+      <c r="P33" s="27">
         <f>SUM(C33:N33)</f>
-        <v>168.125</v>
+        <v>247.92500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5292,7 +5362,7 @@
     <mergeCell ref="C2:N2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A21:XFD1048576 A20:P20 S20:XFD20 A16:XFD19 A15:P15 S15:XFD15 A1:XFD14">
+  <conditionalFormatting sqref="A20:P20 S20:XFD20 A16:XFD19 A15:P15 S15:XFD15 A1:XFD14 C10:F28 H9:N28 G16:G28 A21:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
